--- a/src/uploads/ExcelResiduos/Modulo Residuos.xlsx
+++ b/src/uploads/ExcelResiduos/Modulo Residuos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C67D6D-4129-4C37-9013-518216A3F54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE76ABC-77D1-407B-9EB2-5C4D192DAAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{662367C6-0CB6-4A1B-BE0C-1C43A1B6C722}"/>
   </bookViews>
@@ -194,9 +194,6 @@
     <t>Residuos Peligrosos</t>
   </si>
   <si>
-    <t>N de NIC</t>
-  </si>
-  <si>
     <t>Nombre del cliente</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Comercio</t>
+  </si>
+  <si>
+    <t>N de NIT</t>
   </si>
 </sst>
 </file>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D8B9F3-A0C1-4162-857D-F4E251C8052A}">
   <dimension ref="B3:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C122">
         <v>1234567890</v>
@@ -1577,34 +1577,34 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C124" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C125" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C126" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/uploads/ExcelResiduos/Modulo Residuos.xlsx
+++ b/src/uploads/ExcelResiduos/Modulo Residuos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE76ABC-77D1-407B-9EB2-5C4D192DAAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E205B8D8-66B7-4263-BE35-EAC40AFB4387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{662367C6-0CB6-4A1B-BE0C-1C43A1B6C722}"/>
   </bookViews>
@@ -209,9 +209,6 @@
     <t>Sebas</t>
   </si>
   <si>
-    <t>Enero</t>
-  </si>
-  <si>
     <t>L Pelaez</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>N de NIT</t>
+  </si>
+  <si>
+    <t>Febrero</t>
   </si>
 </sst>
 </file>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D8B9F3-A0C1-4162-857D-F4E251C8052A}">
   <dimension ref="B3:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C122">
         <v>1234567890</v>
@@ -1588,7 +1588,7 @@
         <v>53</v>
       </c>
       <c r="C124" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
@@ -1596,7 +1596,7 @@
         <v>54</v>
       </c>
       <c r="C125" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
         <v>55</v>
       </c>
       <c r="C126" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/src/uploads/ExcelResiduos/Modulo Residuos.xlsx
+++ b/src/uploads/ExcelResiduos/Modulo Residuos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E205B8D8-66B7-4263-BE35-EAC40AFB4387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0283ABE-4EC2-4078-9B81-BF05A07A6745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{662367C6-0CB6-4A1B-BE0C-1C43A1B6C722}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t xml:space="preserve">Antes </t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>Febrero</t>
+  </si>
+  <si>
+    <t>sede</t>
+  </si>
+  <si>
+    <t>Cali</t>
   </si>
 </sst>
 </file>
@@ -851,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D8B9F3-A0C1-4162-857D-F4E251C8052A}">
-  <dimension ref="B3:H126"/>
+  <dimension ref="B3:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1607,6 +1613,14 @@
         <v>57</v>
       </c>
     </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F23:H23"/>

--- a/src/uploads/ExcelResiduos/Modulo Residuos.xlsx
+++ b/src/uploads/ExcelResiduos/Modulo Residuos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0283ABE-4EC2-4078-9B81-BF05A07A6745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8C2479-85AF-4261-B55D-A5D1F035DAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{662367C6-0CB6-4A1B-BE0C-1C43A1B6C722}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{662367C6-0CB6-4A1B-BE0C-1C43A1B6C722}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -218,13 +216,13 @@
     <t>N de NIT</t>
   </si>
   <si>
+    <t>sede</t>
+  </si>
+  <si>
+    <t>Pereira</t>
+  </si>
+  <si>
     <t>Febrero</t>
-  </si>
-  <si>
-    <t>sede</t>
-  </si>
-  <si>
-    <t>Cali</t>
   </si>
 </sst>
 </file>
@@ -859,11 +857,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D8B9F3-A0C1-4162-857D-F4E251C8052A}">
   <dimension ref="B3:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
@@ -1578,7 +1576,7 @@
         <v>59</v>
       </c>
       <c r="C122">
-        <v>1234567890</v>
+        <v>12345678445</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
@@ -1602,7 +1600,7 @@
         <v>54</v>
       </c>
       <c r="C125" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
@@ -1615,10 +1613,10 @@
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" t="s">
         <v>61</v>
-      </c>
-      <c r="C127" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1628,5 +1626,6 @@
     <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/uploads/ExcelResiduos/Modulo Residuos.xlsx
+++ b/src/uploads/ExcelResiduos/Modulo Residuos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8C2479-85AF-4261-B55D-A5D1F035DAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB93448-6AAC-4C21-BDC6-D64A9BE30C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{662367C6-0CB6-4A1B-BE0C-1C43A1B6C722}"/>
   </bookViews>
@@ -222,7 +222,7 @@
     <t>Pereira</t>
   </si>
   <si>
-    <t>Febrero</t>
+    <t>Marzo</t>
   </si>
 </sst>
 </file>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D8B9F3-A0C1-4162-857D-F4E251C8052A}">
   <dimension ref="B3:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1355,7 +1355,7 @@
         <v>32</v>
       </c>
       <c r="C81" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C82" s="1">
         <f>(C80-C81)/C80*100</f>
-        <v>33.333333333333329</v>
+        <v>-133.33333333333331</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
